--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.8831624344825</v>
+        <v>820.0949797368801</v>
       </c>
       <c r="AB2" t="n">
-        <v>827.6278284046138</v>
+        <v>1122.090131313047</v>
       </c>
       <c r="AC2" t="n">
-        <v>748.6401900446294</v>
+        <v>1014.99942404392</v>
       </c>
       <c r="AD2" t="n">
-        <v>604883.1624344825</v>
+        <v>820094.9797368801</v>
       </c>
       <c r="AE2" t="n">
-        <v>827627.8284046138</v>
+        <v>1122090.131313047</v>
       </c>
       <c r="AF2" t="n">
         <v>3.710794818566932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>748640.1900446294</v>
+        <v>1014999.42404392</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.448627528862</v>
+        <v>622.8534891247839</v>
       </c>
       <c r="AB3" t="n">
-        <v>624.5331492772318</v>
+        <v>852.2156221771452</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.9285820479921</v>
+        <v>770.8813592886955</v>
       </c>
       <c r="AD3" t="n">
-        <v>456448.627528862</v>
+        <v>622853.4891247839</v>
       </c>
       <c r="AE3" t="n">
-        <v>624533.1492772318</v>
+        <v>852215.6221771452</v>
       </c>
       <c r="AF3" t="n">
         <v>4.675770226071807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.56770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>564928.5820479922</v>
+        <v>770881.3592886955</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.4248025829324</v>
+        <v>573.9396576820208</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.1390303765595</v>
+        <v>785.2895600712123</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.6303229160836</v>
+        <v>710.3426266188347</v>
       </c>
       <c r="AD4" t="n">
-        <v>417424.8025829325</v>
+        <v>573939.6576820208</v>
       </c>
       <c r="AE4" t="n">
-        <v>571139.0303765595</v>
+        <v>785289.5600712124</v>
       </c>
       <c r="AF4" t="n">
         <v>5.050043992894946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.06770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>516630.3229160836</v>
+        <v>710342.6266188348</v>
       </c>
     </row>
     <row r="5">
@@ -2345,19 +2345,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.4577889003972</v>
+        <v>544.0057983884092</v>
       </c>
       <c r="AB5" t="n">
-        <v>530.1368402047769</v>
+        <v>744.3327331970233</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.5413242273605</v>
+        <v>673.2946618182509</v>
       </c>
       <c r="AD5" t="n">
-        <v>387457.7889003973</v>
+        <v>544005.7983884092</v>
       </c>
       <c r="AE5" t="n">
-        <v>530136.840204777</v>
+        <v>744332.7331970234</v>
       </c>
       <c r="AF5" t="n">
         <v>5.231756618816325e-06</v>
@@ -2366,7 +2366,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>479541.3242273605</v>
+        <v>673294.6618182509</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.3212286961283</v>
+        <v>701.8638808607291</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.5075306519378</v>
+        <v>960.3211258427409</v>
       </c>
       <c r="AC2" t="n">
-        <v>629.1292680774661</v>
+        <v>868.6694254114741</v>
       </c>
       <c r="AD2" t="n">
-        <v>508321.2286961284</v>
+        <v>701863.880860729</v>
       </c>
       <c r="AE2" t="n">
-        <v>695507.5306519378</v>
+        <v>960321.1258427409</v>
       </c>
       <c r="AF2" t="n">
         <v>4.530091695310775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.91666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>629129.2680774662</v>
+        <v>868669.4254114741</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.4514655340934</v>
+        <v>562.2387667093381</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.4930706337605</v>
+        <v>769.2798848355101</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.2867144189125</v>
+        <v>695.8608923179077</v>
       </c>
       <c r="AD3" t="n">
-        <v>407451.4655340934</v>
+        <v>562238.7667093381</v>
       </c>
       <c r="AE3" t="n">
-        <v>557493.0706337604</v>
+        <v>769279.88483551</v>
       </c>
       <c r="AF3" t="n">
         <v>5.465732959075721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>504286.7144189125</v>
+        <v>695860.8923179077</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.0742193443983</v>
+        <v>532.2151367883156</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.6120234163645</v>
+        <v>728.2002298284972</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.0665952166494</v>
+        <v>658.701821929106</v>
       </c>
       <c r="AD4" t="n">
-        <v>387074.2193443983</v>
+        <v>532215.1367883156</v>
       </c>
       <c r="AE4" t="n">
-        <v>529612.0234163646</v>
+        <v>728200.2298284972</v>
       </c>
       <c r="AF4" t="n">
         <v>5.700962194193395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.13020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>479066.5952166494</v>
+        <v>658701.821929106</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.6204275504303</v>
+        <v>506.2739699672739</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.9438019573851</v>
+        <v>692.7063809404385</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.3751303319988</v>
+        <v>626.5954561629941</v>
       </c>
       <c r="AD2" t="n">
-        <v>356620.4275504303</v>
+        <v>506273.9699672739</v>
       </c>
       <c r="AE2" t="n">
-        <v>487943.8019573851</v>
+        <v>692706.3809404385</v>
       </c>
       <c r="AF2" t="n">
         <v>7.774871564086172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>441375.1303319988</v>
+        <v>626595.456162994</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.7439785641056</v>
+        <v>549.3977808120634</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.2108586973235</v>
+        <v>751.710281426543</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.2721381479876</v>
+        <v>679.9681071991993</v>
       </c>
       <c r="AD2" t="n">
-        <v>397743.9785641056</v>
+        <v>549397.7808120634</v>
       </c>
       <c r="AE2" t="n">
-        <v>544210.8586973235</v>
+        <v>751710.281426543</v>
       </c>
       <c r="AF2" t="n">
         <v>6.478193531737814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>492272.1381479876</v>
+        <v>679968.1071991993</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.1464624593822</v>
+        <v>509.3176945788611</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.3459872956992</v>
+        <v>696.870939233665</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.4027913152182</v>
+        <v>630.3625548577093</v>
       </c>
       <c r="AD3" t="n">
-        <v>367146.4624593822</v>
+        <v>509317.6945788611</v>
       </c>
       <c r="AE3" t="n">
-        <v>502345.9872956992</v>
+        <v>696870.939233665</v>
       </c>
       <c r="AF3" t="n">
         <v>6.88392756737883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>454402.7913152182</v>
+        <v>630362.5548577092</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.4423354172733</v>
+        <v>515.6451388297237</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.436616677702</v>
+        <v>705.5284276048342</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.6300343140961</v>
+        <v>638.1937846895954</v>
       </c>
       <c r="AD2" t="n">
-        <v>358442.3354172733</v>
+        <v>515645.1388297237</v>
       </c>
       <c r="AE2" t="n">
-        <v>490436.6166777021</v>
+        <v>705528.4276048342</v>
       </c>
       <c r="AF2" t="n">
         <v>8.601532132261709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>443630.0343140961</v>
+        <v>638193.7846895955</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.3269488563961</v>
+        <v>733.1119552754158</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.2484836821859</v>
+        <v>1003.076119824664</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.1272248886884</v>
+        <v>907.3439427747734</v>
       </c>
       <c r="AD2" t="n">
-        <v>529326.9488563961</v>
+        <v>733111.9552754158</v>
       </c>
       <c r="AE2" t="n">
-        <v>724248.4836821859</v>
+        <v>1003076.119824664</v>
       </c>
       <c r="AF2" t="n">
         <v>4.302568685538448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>655127.2248886884</v>
+        <v>907343.9427747733</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.0624812799393</v>
+        <v>580.0459383224327</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.9067981515436</v>
+        <v>793.6444426335131</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.7065703981568</v>
+        <v>717.900130915541</v>
       </c>
       <c r="AD3" t="n">
-        <v>415062.4812799393</v>
+        <v>580045.9383224327</v>
       </c>
       <c r="AE3" t="n">
-        <v>567906.7981515436</v>
+        <v>793644.4426335131</v>
       </c>
       <c r="AF3" t="n">
         <v>5.241991914594974e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>513706.5703981569</v>
+        <v>717900.130915541</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.6284635928152</v>
+        <v>535.1950742675123</v>
       </c>
       <c r="AB4" t="n">
-        <v>533.1068530823519</v>
+        <v>732.2775117530972</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.2278832443391</v>
+        <v>662.3899737893234</v>
       </c>
       <c r="AD4" t="n">
-        <v>389628.4635928152</v>
+        <v>535195.0742675123</v>
       </c>
       <c r="AE4" t="n">
-        <v>533106.8530823519</v>
+        <v>732277.5117530972</v>
       </c>
       <c r="AF4" t="n">
         <v>5.575275439960349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>482227.8832443391</v>
+        <v>662389.9737893235</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>390.1795537468959</v>
+        <v>535.746164421593</v>
       </c>
       <c r="AB5" t="n">
-        <v>533.8608789435469</v>
+        <v>733.0315376142921</v>
       </c>
       <c r="AC5" t="n">
-        <v>482.9099459356236</v>
+        <v>663.0720364806079</v>
       </c>
       <c r="AD5" t="n">
-        <v>390179.5537468959</v>
+        <v>535746.164421593</v>
       </c>
       <c r="AE5" t="n">
-        <v>533860.8789435469</v>
+        <v>733031.5376142921</v>
       </c>
       <c r="AF5" t="n">
         <v>5.572508266453743e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>482909.9459356236</v>
+        <v>663072.0364806079</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.8061887107273</v>
+        <v>519.993835465131</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.7756773903121</v>
+        <v>711.4785061923541</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.268665372731</v>
+        <v>643.57599612771</v>
       </c>
       <c r="AD2" t="n">
-        <v>363806.1887107273</v>
+        <v>519993.835465131</v>
       </c>
       <c r="AE2" t="n">
-        <v>497775.6773903121</v>
+        <v>711478.506192354</v>
       </c>
       <c r="AF2" t="n">
         <v>9.113695315732548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>450268.665372731</v>
+        <v>643575.99612771</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>447.0934839646544</v>
+        <v>619.6513066505485</v>
       </c>
       <c r="AB2" t="n">
-        <v>611.7330291328773</v>
+        <v>847.8342548455759</v>
       </c>
       <c r="AC2" t="n">
-        <v>553.3500874051334</v>
+        <v>766.9181435059636</v>
       </c>
       <c r="AD2" t="n">
-        <v>447093.4839646544</v>
+        <v>619651.3066505485</v>
       </c>
       <c r="AE2" t="n">
-        <v>611733.0291328772</v>
+        <v>847834.2548455759</v>
       </c>
       <c r="AF2" t="n">
         <v>5.358963298515477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>553350.0874051334</v>
+        <v>766918.1435059636</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.265273879044</v>
+        <v>521.0246108252353</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.1909914905342</v>
+        <v>712.8888585146481</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.9264477412837</v>
+        <v>644.8517464038063</v>
       </c>
       <c r="AD3" t="n">
-        <v>377265.273879044</v>
+        <v>521024.6108252353</v>
       </c>
       <c r="AE3" t="n">
-        <v>516190.9914905342</v>
+        <v>712888.858514648</v>
       </c>
       <c r="AF3" t="n">
         <v>6.211131252051458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>466926.4477412836</v>
+        <v>644851.7464038063</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.4306293233418</v>
+        <v>520.777399023269</v>
       </c>
       <c r="AB4" t="n">
-        <v>502.7347969355259</v>
+        <v>712.5506124209827</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.7544935087178</v>
+        <v>644.5457820425891</v>
       </c>
       <c r="AD4" t="n">
-        <v>367430.6293233418</v>
+        <v>520777.399023269</v>
       </c>
       <c r="AE4" t="n">
-        <v>502734.796935526</v>
+        <v>712550.6124209827</v>
       </c>
       <c r="AF4" t="n">
         <v>6.231352672692415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>454754.4935087177</v>
+        <v>644545.782042589</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.8645195694686</v>
+        <v>671.2010723858568</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.5177587385298</v>
+        <v>918.3669185397829</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.8108007115821</v>
+        <v>830.7192687704108</v>
       </c>
       <c r="AD2" t="n">
-        <v>487864.5195694686</v>
+        <v>671201.0723858569</v>
       </c>
       <c r="AE2" t="n">
-        <v>667517.7587385298</v>
+        <v>918366.9185397829</v>
       </c>
       <c r="AF2" t="n">
         <v>4.776277793560414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.90104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>603810.8007115822</v>
+        <v>830719.2687704108</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.4847314603784</v>
+        <v>543.8680129764768</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.9101924377378</v>
+        <v>744.1442091177541</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.0499916156319</v>
+        <v>673.1241302125119</v>
       </c>
       <c r="AD3" t="n">
-        <v>389484.7314603784</v>
+        <v>543868.0129764768</v>
       </c>
       <c r="AE3" t="n">
-        <v>532910.1924377378</v>
+        <v>744144.2091177541</v>
       </c>
       <c r="AF3" t="n">
         <v>5.734836392778203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>482049.991615632</v>
+        <v>673124.1302125119</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.7843047060221</v>
+        <v>528.4833413997668</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.110617067348</v>
+        <v>723.0942227426914</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.9947967718194</v>
+        <v>654.0831249932438</v>
       </c>
       <c r="AD4" t="n">
-        <v>383784.3047060221</v>
+        <v>528483.3413997669</v>
       </c>
       <c r="AE4" t="n">
-        <v>525110.617067348</v>
+        <v>723094.2227426914</v>
       </c>
       <c r="AF4" t="n">
         <v>5.867702550825409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>474994.7967718194</v>
+        <v>654083.1249932438</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>582.4664347967436</v>
+        <v>787.3844840824534</v>
       </c>
       <c r="AB2" t="n">
-        <v>796.9562726944332</v>
+        <v>1077.33418807344</v>
       </c>
       <c r="AC2" t="n">
-        <v>720.8958845636296</v>
+        <v>974.51492521174</v>
       </c>
       <c r="AD2" t="n">
-        <v>582466.4347967436</v>
+        <v>787384.4840824533</v>
       </c>
       <c r="AE2" t="n">
-        <v>796956.2726944332</v>
+        <v>1077334.18807344</v>
       </c>
       <c r="AF2" t="n">
         <v>3.894386526865007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.14583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>720895.8845636296</v>
+        <v>974514.92521174</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.7225343062439</v>
+        <v>604.6565634925734</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.2795265100049</v>
+        <v>827.317785735454</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.9896909974963</v>
+        <v>748.3597374126665</v>
       </c>
       <c r="AD3" t="n">
-        <v>438722.5343062439</v>
+        <v>604656.5634925733</v>
       </c>
       <c r="AE3" t="n">
-        <v>600279.5265100049</v>
+        <v>827317.7857354539</v>
       </c>
       <c r="AF3" t="n">
         <v>4.862368591874411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.94270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>542989.6909974962</v>
+        <v>748359.7374126666</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.8014247601517</v>
+        <v>556.9726189697101</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.3941914677603</v>
+        <v>762.0745091721095</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.0562195101583</v>
+        <v>689.3431875950139</v>
       </c>
       <c r="AD4" t="n">
-        <v>400801.4247601518</v>
+        <v>556972.6189697101</v>
       </c>
       <c r="AE4" t="n">
-        <v>548394.1914677602</v>
+        <v>762074.5091721095</v>
       </c>
       <c r="AF4" t="n">
         <v>5.219055092691824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>496056.2195101583</v>
+        <v>689343.1875950139</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>396.7217516444818</v>
+        <v>543.0969564883453</v>
       </c>
       <c r="AB5" t="n">
-        <v>542.8122027284252</v>
+        <v>743.089215614081</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.006967941735</v>
+        <v>672.1698238081367</v>
       </c>
       <c r="AD5" t="n">
-        <v>396721.7516444818</v>
+        <v>543096.9564883453</v>
       </c>
       <c r="AE5" t="n">
-        <v>542812.2027284252</v>
+        <v>743089.215614081</v>
       </c>
       <c r="AF5" t="n">
         <v>5.299043440296211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>491006.9679417349</v>
+        <v>672169.8238081367</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.7261232373896</v>
+        <v>569.5275716351118</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.8688694204528</v>
+        <v>779.2527492943325</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.62664749684</v>
+        <v>704.8819605897833</v>
       </c>
       <c r="AD2" t="n">
-        <v>407726.1232373895</v>
+        <v>569527.5716351118</v>
       </c>
       <c r="AE2" t="n">
-        <v>557868.8694204529</v>
+        <v>779252.7492943325</v>
       </c>
       <c r="AF2" t="n">
         <v>6.057979593004597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>504626.6474968399</v>
+        <v>704881.9605897833</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.3417574580687</v>
+        <v>513.0705674884553</v>
       </c>
       <c r="AB3" t="n">
-        <v>506.7179308793685</v>
+        <v>702.0057855136394</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.3574827393234</v>
+        <v>635.0073386155248</v>
       </c>
       <c r="AD3" t="n">
-        <v>370341.7574580687</v>
+        <v>513070.5674884552</v>
       </c>
       <c r="AE3" t="n">
-        <v>506717.9308793684</v>
+        <v>702005.7855136393</v>
       </c>
       <c r="AF3" t="n">
         <v>6.644700865107768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>458357.4827393234</v>
+        <v>635007.3386155248</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.5191884716184</v>
+        <v>510.8999569511866</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.2782586509471</v>
+        <v>699.03586041597</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.2004739656842</v>
+        <v>632.3208590008611</v>
       </c>
       <c r="AD2" t="n">
-        <v>360519.1884716184</v>
+        <v>510899.9569511866</v>
       </c>
       <c r="AE2" t="n">
-        <v>493278.2586509471</v>
+        <v>699035.86041597</v>
       </c>
       <c r="AF2" t="n">
         <v>7.42168963766051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>446200.4739656842</v>
+        <v>632320.8590008611</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.6355029449936</v>
+        <v>511.0162714245618</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.4374052448515</v>
+        <v>699.1950070098743</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.34443183203</v>
+        <v>632.4648168672069</v>
       </c>
       <c r="AD3" t="n">
-        <v>360635.5029449936</v>
+        <v>511016.2714245618</v>
       </c>
       <c r="AE3" t="n">
-        <v>493437.4052448515</v>
+        <v>699195.0070098743</v>
       </c>
       <c r="AF3" t="n">
         <v>7.437563603650899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>446344.43183203</v>
+        <v>632464.8168672068</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.3036251844447</v>
+        <v>511.0976186403963</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.7198036852278</v>
+        <v>699.3063098593649</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.4090013686231</v>
+        <v>632.5654971289567</v>
       </c>
       <c r="AD2" t="n">
-        <v>362303.6251844447</v>
+        <v>511097.6186403963</v>
       </c>
       <c r="AE2" t="n">
-        <v>495719.8036852278</v>
+        <v>699306.3098593649</v>
       </c>
       <c r="AF2" t="n">
         <v>8.158268509283823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.27604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>448409.0013686231</v>
+        <v>632565.4971289567</v>
       </c>
     </row>
   </sheetData>
@@ -12441,19 +12441,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.5202222102671</v>
+        <v>551.6543195455148</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.9080671617269</v>
+        <v>754.7977772731141</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.4796481203485</v>
+        <v>682.7609367755014</v>
       </c>
       <c r="AD2" t="n">
-        <v>378520.2222102672</v>
+        <v>551654.3195455148</v>
       </c>
       <c r="AE2" t="n">
-        <v>517908.0671617269</v>
+        <v>754797.7772731141</v>
       </c>
       <c r="AF2" t="n">
         <v>9.636291029887695e-06</v>
@@ -12462,7 +12462,7 @@
         <v>35</v>
       </c>
       <c r="AH2" t="n">
-        <v>468479.6481203485</v>
+        <v>682760.9367755014</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.5858737281108</v>
+        <v>650.3058115426759</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.7716208676692</v>
+        <v>889.777100820294</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.7127152971674</v>
+        <v>804.8580231280087</v>
       </c>
       <c r="AD2" t="n">
-        <v>467585.8737281107</v>
+        <v>650305.8115426758</v>
       </c>
       <c r="AE2" t="n">
-        <v>639771.6208676692</v>
+        <v>889777.100820294</v>
       </c>
       <c r="AF2" t="n">
         <v>5.04545478679466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.91145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>578712.7152971674</v>
+        <v>804858.0231280087</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.3149415809424</v>
+        <v>526.5541496564958</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.1001696158878</v>
+        <v>720.4546174896151</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.1762236034459</v>
+        <v>651.6954399608119</v>
       </c>
       <c r="AD3" t="n">
-        <v>382314.9415809424</v>
+        <v>526554.1496564959</v>
       </c>
       <c r="AE3" t="n">
-        <v>523100.1696158878</v>
+        <v>720454.6174896151</v>
       </c>
       <c r="AF3" t="n">
         <v>5.995153064248899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>473176.2236034459</v>
+        <v>651695.4399608119</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.7291827708599</v>
+        <v>524.9683908464134</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.9304644531918</v>
+        <v>718.2849123269192</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.2135920562772</v>
+        <v>649.7328084136433</v>
       </c>
       <c r="AD4" t="n">
-        <v>380729.1827708599</v>
+        <v>524968.3908464134</v>
       </c>
       <c r="AE4" t="n">
-        <v>520930.4644531918</v>
+        <v>718284.9123269191</v>
       </c>
       <c r="AF4" t="n">
         <v>6.028906813667433e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>471213.5920562772</v>
+        <v>649732.8084136433</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>560.5647653867618</v>
+        <v>755.2240214382559</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.9894423742351</v>
+        <v>1033.330824264172</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.7890464704806</v>
+        <v>934.7111806853195</v>
       </c>
       <c r="AD2" t="n">
-        <v>560564.7653867617</v>
+        <v>755224.0214382559</v>
       </c>
       <c r="AE2" t="n">
-        <v>766989.442374235</v>
+        <v>1033330.824264172</v>
       </c>
       <c r="AF2" t="n">
         <v>4.0906172357428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.02604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>693789.0464704806</v>
+        <v>934711.1806853195</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.3760860254255</v>
+        <v>597.8595100869634</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.5960359866515</v>
+        <v>818.0177574010656</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.1349406223361</v>
+        <v>739.9472907298406</v>
       </c>
       <c r="AD3" t="n">
-        <v>432376.0860254255</v>
+        <v>597859.5100869634</v>
       </c>
       <c r="AE3" t="n">
-        <v>591596.0359866514</v>
+        <v>818017.7574010657</v>
       </c>
       <c r="AF3" t="n">
         <v>5.029192783699098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.55208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>535134.9406223361</v>
+        <v>739947.2907298405</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.8365814863683</v>
+        <v>539.8141935730628</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.8645856333703</v>
+        <v>738.5975945681129</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.4361058817166</v>
+        <v>668.1068767707661</v>
       </c>
       <c r="AD4" t="n">
-        <v>393836.5814863683</v>
+        <v>539814.1935730628</v>
       </c>
       <c r="AE4" t="n">
-        <v>538864.5856333703</v>
+        <v>738597.5945681129</v>
       </c>
       <c r="AF4" t="n">
         <v>5.421853803561015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>487436.1058817166</v>
+        <v>668106.8767707661</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.3152724726385</v>
+        <v>539.2928845593328</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.1513076422547</v>
+        <v>737.8843165769972</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.7909021409811</v>
+        <v>667.4616730300304</v>
       </c>
       <c r="AD5" t="n">
-        <v>393315.2724726385</v>
+        <v>539292.8845593329</v>
       </c>
       <c r="AE5" t="n">
-        <v>538151.3076422546</v>
+        <v>737884.3165769972</v>
       </c>
       <c r="AF5" t="n">
         <v>5.436946475688955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.13020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>486790.9021409811</v>
+        <v>667461.6730300304</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.0202207391483</v>
+        <v>610.5749464140669</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.0584401165484</v>
+        <v>835.4155783492683</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.0802310949229</v>
+        <v>755.6846880647419</v>
       </c>
       <c r="AD2" t="n">
-        <v>421020.2207391483</v>
+        <v>610574.9464140668</v>
       </c>
       <c r="AE2" t="n">
-        <v>576058.4401165483</v>
+        <v>835415.5783492683</v>
       </c>
       <c r="AF2" t="n">
         <v>1.00211780603116e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.63541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>521080.2310949228</v>
+        <v>755684.6880647419</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.1150866207803</v>
+        <v>529.1033271625275</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.3537427748701</v>
+        <v>723.9425146151422</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.9782276749741</v>
+        <v>654.8504570799728</v>
       </c>
       <c r="AD2" t="n">
-        <v>378115.0866207803</v>
+        <v>529103.3271625275</v>
       </c>
       <c r="AE2" t="n">
-        <v>517353.74277487</v>
+        <v>723942.5146151421</v>
       </c>
       <c r="AF2" t="n">
         <v>6.952488625862544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>467978.2276749741</v>
+        <v>654850.4570799728</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.9882673836454</v>
+        <v>505.5675654836589</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.0248054633427</v>
+        <v>691.7398471615901</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.494017012125</v>
+        <v>625.7211670114602</v>
       </c>
       <c r="AD3" t="n">
-        <v>363988.2673836454</v>
+        <v>505567.5654836589</v>
       </c>
       <c r="AE3" t="n">
-        <v>498024.8054633427</v>
+        <v>691739.8471615901</v>
       </c>
       <c r="AF3" t="n">
         <v>7.14303726676708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>450494.017012125</v>
+        <v>625721.1670114603</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.6134960187609</v>
+        <v>599.5342282653987</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.0796502288908</v>
+        <v>820.3091806961525</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.2404695754913</v>
+        <v>742.020023801677</v>
       </c>
       <c r="AD2" t="n">
-        <v>427613.496018761</v>
+        <v>599534.2282653988</v>
       </c>
       <c r="AE2" t="n">
-        <v>585079.6502288908</v>
+        <v>820309.1806961525</v>
       </c>
       <c r="AF2" t="n">
         <v>5.67885679513889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>529240.4695754913</v>
+        <v>742020.0238016769</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.9900928758787</v>
+        <v>517.2469923050071</v>
       </c>
       <c r="AB3" t="n">
-        <v>511.7097443512152</v>
+        <v>707.7201541985047</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.8728845394713</v>
+        <v>640.1763359732737</v>
       </c>
       <c r="AD3" t="n">
-        <v>373990.0928758787</v>
+        <v>517246.9923050071</v>
       </c>
       <c r="AE3" t="n">
-        <v>511709.7443512152</v>
+        <v>707720.1541985048</v>
       </c>
       <c r="AF3" t="n">
         <v>6.412274273747901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>462872.8845394714</v>
+        <v>640176.3359732737</v>
       </c>
     </row>
   </sheetData>
